--- a/lab machines.xlsx
+++ b/lab machines.xlsx
@@ -548,13 +548,16 @@
 RDP Webpage at /tsweb</t>
   </si>
   <si>
-    <t>1. Get low privilege shell with asp reverse shell.</t>
-  </si>
-  <si>
     <t>Windows XP 5.1 SP1</t>
   </si>
   <si>
     <t>Bob</t>
+  </si>
+  <si>
+    <t>1. Get low privilege shell with asp reverse shell.
+2. Per Forum, accesschk.exe important for PE
+ - find correct version
+ - ftp over (using binary setting)</t>
   </si>
 </sst>
 </file>
@@ -644,35 +647,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1002,7 +977,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,7 +989,7 @@
     <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.77734375" customWidth="1"/>
     <col min="7" max="7" width="33.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.88671875" customWidth="1"/>
@@ -1091,15 +1066,15 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -1111,8 +1086,8 @@
       <c r="G4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>150</v>
+      <c r="H4" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
@@ -1386,12 +1361,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1 L2:XFD18 A19:XFD1048576 A13:J18 A12:F12 H12:J12 A2:J11">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$I1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$I16=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1471,12 +1446,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:XFD2 A2:J2">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$I2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I1=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1719,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,12 +1867,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1 A3:XFD3">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$I1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:XFD6">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$I6=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/lab machines.xlsx
+++ b/lab machines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6612"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
   <si>
     <t>Host</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Apache web server</t>
-  </si>
-  <si>
-    <t>big trees page</t>
   </si>
   <si>
     <t>play with offsec team login page (malicious??)</t>
@@ -284,9 +281,6 @@
   </si>
   <si>
     <t>21,22,80</t>
-  </si>
-  <si>
-    <t>21,22</t>
   </si>
   <si>
     <t>10.11.1.125</t>
@@ -556,8 +550,61 @@
   <si>
     <t>1. Get low privilege shell with asp reverse shell.
 2. Per Forum, accesschk.exe important for PE
- - find correct version
- - ftp over (using binary setting)</t>
+ - find correct version (5.0)
+ - ftp over (using binary setting)
+  - append -accepteula to each command
+3. Per forum need to find service with poor security to overwrite and exploit</t>
+  </si>
+  <si>
+    <t>Centos</t>
+  </si>
+  <si>
+    <t>22, 80, 3306</t>
+  </si>
+  <si>
+    <t>MySQL
+OTRS 5
+nginx 1.6.3
+OpenSSH 6.6.1</t>
+  </si>
+  <si>
+    <t>OpenSSH 5.8p1
+James smtpd 2.3.2
+Apache 2.2.20
+James Pop3 2.3.2</t>
+  </si>
+  <si>
+    <t>22, 80, 119, 2049, 4555, 41829, 42913, 46021, 46401, 48758</t>
+  </si>
+  <si>
+    <t>Maybe can exploit NFS - lots of mounts here</t>
+  </si>
+  <si>
+    <t>21,22, 25, 80, 139, 143, 199, 443, 3306, 32768</t>
+  </si>
+  <si>
+    <t>Tophat</t>
+  </si>
+  <si>
+    <t>Anonymous FTP allowed
+http://10.11.1.115/webmail/src/read_body.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. May have openf vuln (trying since I have it already)
+2. Squirrelmail - all exploits seem to need creds
+</t>
+  </si>
+  <si>
+    <t>sshv1
+Apache 2.0.40
+imap 2001.315 rh
+linux snmp multiplexer
+SquirrelMail 1.2.10
+webalizer 2.0.1
+vsftpd 1.1.3</t>
+  </si>
+  <si>
+    <t>Red Hat 9</t>
   </si>
 </sst>
 </file>
@@ -626,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -643,6 +690,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,27 +1023,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.53125" customWidth="1"/>
+    <col min="4" max="4" width="20.53125" customWidth="1"/>
+    <col min="5" max="5" width="29.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.796875" customWidth="1"/>
+    <col min="7" max="7" width="33.1328125" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1012,111 +1060,111 @@
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1124,17 +1172,17 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1142,155 +1190,155 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>5900</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13">
         <v>77</v>
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
         <v>146</v>
       </c>
-      <c r="F14" t="s">
-        <v>148</v>
-      </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1302,36 +1350,36 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1339,15 +1387,15 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="1"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1355,7 +1403,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1383,18 +1431,18 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1411,36 +1459,36 @@
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K2" s="9"/>
     </row>
@@ -1463,20 +1511,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1504,69 +1552,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1574,10 +1584,10 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>136</v>
       </c>
@@ -1585,7 +1595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>141</v>
       </c>
@@ -1593,42 +1603,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>226</v>
       </c>
@@ -1636,53 +1646,53 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
         <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1692,25 +1702,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.46484375" customWidth="1"/>
+    <col min="8" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" customWidth="1"/>
+    <col min="10" max="10" width="32.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1727,142 +1739,199 @@
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J3" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>94</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>106</v>
+    </row>
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1871,9 +1940,9 @@
       <formula>$I1=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:XFD6">
+  <conditionalFormatting sqref="A7:XFD7">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$I6=1</formula>
+      <formula>$I7=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1892,7 +1961,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L2:XFD2 A2:J2 L4:XFD4 A4:J4</xm:sqref>
+          <xm:sqref>L2:XFD2 A2:J2 L4:XFD5 A4:J4 A5:C5 E5:F5 H5:J5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/lab machines.xlsx
+++ b/lab machines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6615" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6612" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Linux" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="182">
   <si>
     <t>Host</t>
   </si>
@@ -74,9 +75,6 @@
     <t>10.11.1.136</t>
   </si>
   <si>
-    <t>10.11.1.145</t>
-  </si>
-  <si>
     <t>10.11.1.202</t>
   </si>
   <si>
@@ -116,9 +114,6 @@
     <t>regsvc-dos</t>
   </si>
   <si>
-    <t>Mail Server</t>
-  </si>
-  <si>
     <t>10.11.1.72</t>
   </si>
   <si>
@@ -179,9 +174,6 @@
     <t>Apache web server</t>
   </si>
   <si>
-    <t>play with offsec team login page (malicious??)</t>
-  </si>
-  <si>
     <t>SMB, web (ecommerce page)</t>
   </si>
   <si>
@@ -194,9 +186,6 @@
     <t>SMB, bethany's web page, SNMP</t>
   </si>
   <si>
-    <t>139, 445, 161</t>
-  </si>
-  <si>
     <t>SMB, SNMP</t>
   </si>
   <si>
@@ -210,9 +199,6 @@
   </si>
   <si>
     <t>Windows 2000</t>
-  </si>
-  <si>
-    <t>Linux barry 2.4.18-3</t>
   </si>
   <si>
     <t>Windows 6.1</t>
@@ -265,22 +251,13 @@
 Apache web with listed pages, SNMP,  IIS, VNC, msrpc, anonymous FTP</t>
   </si>
   <si>
-    <t>21, 22, 139, 445, 80</t>
-  </si>
-  <si>
     <t>21,22, 25, 80, 161</t>
   </si>
   <si>
     <t>21,  80, 161</t>
   </si>
   <si>
-    <t>10.11.1.25</t>
-  </si>
-  <si>
     <t>22, 80</t>
-  </si>
-  <si>
-    <t>21,22,80</t>
   </si>
   <si>
     <t>10.11.1.125</t>
@@ -339,11 +316,6 @@
   </si>
   <si>
     <t>FTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exploit femitter, traverse directories
-Browse to ftp://10.11.1.125/\..
-Traverse using this pattern: </t>
   </si>
   <si>
     <t>0x73 (had to tweak code a bit - downloading dependencies locally). This got me shell as Apache user.
@@ -404,11 +376,6 @@
     <t>Windows XP 5.1</t>
   </si>
   <si>
-    <t>Apache 2.0.52 (vulnerable)
-10.11.1.8/internal - vuln form?
-PHP</t>
-  </si>
-  <si>
     <t>SMB, iis (xss vuln)</t>
   </si>
   <si>
@@ -505,11 +472,6 @@
   </si>
   <si>
     <t>ACME</t>
-  </si>
-  <si>
-    <t>ancient apache on 7778
-apache_chunked exploit
-SMB vuln</t>
   </si>
   <si>
     <t>Apache 1.3.22 (with Oracle)
@@ -548,14 +510,6 @@
     <t>Bob</t>
   </si>
   <si>
-    <t>1. Get low privilege shell with asp reverse shell.
-2. Per Forum, accesschk.exe important for PE
- - find correct version (5.0)
- - ftp over (using binary setting)
-  - append -accepteula to each command
-3. Per forum need to find service with poor security to overwrite and exploit</t>
-  </si>
-  <si>
     <t>Centos</t>
   </si>
   <si>
@@ -588,11 +542,6 @@
   <si>
     <t>Anonymous FTP allowed
 http://10.11.1.115/webmail/src/read_body.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. May have openf vuln (trying since I have it already)
-2. Squirrelmail - all exploits seem to need creds
-</t>
   </si>
   <si>
     <t>sshv1
@@ -605,6 +554,143 @@
   </si>
   <si>
     <t>Red Hat 9</t>
+  </si>
+  <si>
+    <t>Run script from exploit.db to create the ../ user
+Don't need to connect via SSH, just connect via Pop port</t>
+  </si>
+  <si>
+    <t>exploit femitter, traverse directories
+Browse to ftp://10.11.1.125/\..
+Traverse using this pattern:  
+Run a broader nmap on this one</t>
+  </si>
+  <si>
+    <t>10.11.1.44</t>
+  </si>
+  <si>
+    <t>1. Get low privilege shell with asp reverse shell.
+2. Per Forum, accesschk.exe important for PE
+ - find correct version (5.0)
+ - ftp over (using binary setting)
+  - append -accepteula to each command
+3. Per forum need to find service with poor security to overwrite and exploit
+4. Per Phillip, run netstat -ano</t>
+  </si>
+  <si>
+    <t>1. Phillip stated that port 445 vulnerable to ms08_067_netapi
+2. Modify /etc/ssh/ssh_config to allow tunneling
+3. With low priv shell, upload plink.exe to victim
+4. plink -l root -pw **** 10.11.0.X -R 3333:127.0.0.1:445
+5. In msf, run exploit</t>
+  </si>
+  <si>
+    <t>Apache Tomcat/Coyote on 8080</t>
+  </si>
+  <si>
+    <t>https://charlesreid1.com/wiki/Metasploitable/Apache/Tomcat_and_Coyote</t>
+  </si>
+  <si>
+    <t>ancient apache on 7778
+apache_chunked exploit
+SMB vuln
+Phillip got into oracle</t>
+  </si>
+  <si>
+    <t>21,22,80,110, 143, 3306</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>XSS</t>
+  </si>
+  <si>
+    <t>Dotty</t>
+  </si>
+  <si>
+    <t>PHPadminlite - password is admin
+https://www.exploit-db.com/exploits/24044/
+https://www.exploit-db.com/exploits/25971/
+https://www.exploit-db.com/exploits/26368/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135, 139, 443, 80, 445, 3306, 3389, 49152-7, </t>
+  </si>
+  <si>
+    <t>play with offsec team login page (malicious??)
+/index/ page - another login</t>
+  </si>
+  <si>
+    <t>139, 445, 80, 161</t>
+  </si>
+  <si>
+    <t>/licenses gives a list of all software installed
+Per Phillip and Forum, XSS (possibly with Beef) is way to go</t>
+  </si>
+  <si>
+    <t>10.11.1.7</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>3389, 161</t>
+  </si>
+  <si>
+    <t>Bob2</t>
+  </si>
+  <si>
+    <t>1.Anon FTP allowed
+2. SMB config allows brute forcing of passwords
+3. Port 631 allows put</t>
+  </si>
+  <si>
+    <t>21, 22, 139, 445, 80, 631, 3306</t>
+  </si>
+  <si>
+    <t>Apache 2.0.52 (vulnerable)
+10.11.1.8/internal - vuln form?
+PHP
+CUPS 1.1 Http server (port 631)
+MySQL</t>
+  </si>
+  <si>
+    <t>1. Get basic shell through RFI exploit on Advanced Comment System (note - gotta connect on port 443 or get stuck behind dumb firewall).
+2. PE with CUPS 1.1 exploit didn't work.
+3. linux-send page - found exploit based on linux kernel and release name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. May have openf vuln (trying since I have it already)
+2. Squirrelmail - all exploits seem to need creds
+3. Webalizer has Stored XSS vuln
+</t>
+  </si>
+  <si>
+    <t>Forum said to look at versions in enum4linux output. Samba 2.2.7a!
+https://www.exploit-db.com/exploits/10/
+./exploit -b 0 IP
+apparently I can find more subnets from this one. Phillip? :)</t>
+  </si>
+  <si>
+    <t>Sufferance</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>22, 8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/otrs/index.pl. 
+Per the forum, need to guess username and pasword based on manual.  http://doc.otrs.com/doc/manual/admin/5.0/en/html/web-installer.html
+root@localhost. Pwd: otrs
+Next, get a shell by uploading package via Admin Package manager. https://www.snip2code.com/Snippet/1822916/OTRS-OPM-backdoored-Package-with-Reverse
+edit /etc/passwd and put in a hashed password where the "x" is after root.
+Create hashed/salted password with this: openssl passwd -1 -salt xyz  yourpass </t>
+  </si>
+  <si>
+    <t>leftturn</t>
   </si>
 </sst>
 </file>
@@ -641,7 +727,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,8 +746,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -669,11 +761,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,26 +797,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1021,29 +1133,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.53125" customWidth="1"/>
-    <col min="4" max="4" width="20.53125" customWidth="1"/>
-    <col min="5" max="5" width="29.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.796875" customWidth="1"/>
-    <col min="7" max="7" width="33.1328125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="33.77734375" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" customWidth="1"/>
+    <col min="12" max="12" width="0.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,371 +1163,417 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="19">
+        <v>161</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12">
+        <v>5900</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15">
+        <v>77</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10">
-        <v>5900</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13">
-        <v>77</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="3"/>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 L2:XFD18 A19:XFD1048576 A13:J18 A12:F12 H12:J12 A2:J11">
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$I1=1</formula>
+  <conditionalFormatting sqref="A1:XFD1 M2:XFD20 A15:K20 A14:G14 I14:K14 A2:K12 A13:C13 E13:K13 A21:XFD1048576">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$J1=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$I16=1</formula>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$J18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1431,18 +1589,18 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1450,56 +1608,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K2" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:XFD2 A2:J2">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$I2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$I1=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1509,22 +1667,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1535,164 +1693,107 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>141</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="D10">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>136</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>141</v>
-      </c>
-      <c r="D12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>146</v>
-      </c>
       <c r="D13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>226</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>226</v>
-      </c>
-      <c r="D17">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1702,269 +1803,332 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.46484375" customWidth="1"/>
-    <col min="8" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.53125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="11"/>
+    <col min="3" max="3" width="9.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3">
+      <c r="B9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="11">
         <v>1</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="J10" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="18" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7">
+      <c r="C11" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="18">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7">
+    </row>
+    <row r="12" spans="1:11" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="15">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="K12" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A3:XFD3">
-    <cfRule type="expression" dxfId="2" priority="7">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I1=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD7">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$I7=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{27DD42CB-A19D-4E3E-BB15-BE43112E7D48}">
-            <xm:f>Windows!$I2=1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L2:XFD2 A2:J2 L4:XFD5 A4:J4 A5:C5 E5:F5 H5:J5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/lab machines.xlsx
+++ b/lab machines.xlsx
@@ -9,16 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6612" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6612" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="1" r:id="rId1"/>
     <sheet name="MacOS" sheetId="4" r:id="rId2"/>
-    <sheet name="unknown" sheetId="2" r:id="rId3"/>
-    <sheet name="Linux" sheetId="3" r:id="rId4"/>
+    <sheet name="Linux" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="267">
   <si>
     <t>Host</t>
   </si>
@@ -96,9 +94,6 @@
     <t>10.11.1.230</t>
   </si>
   <si>
-    <t>Exploit Notes</t>
-  </si>
-  <si>
     <t>CVE-2008-4250</t>
   </si>
   <si>
@@ -117,9 +112,6 @@
     <t>10.11.1.72</t>
   </si>
   <si>
-    <t>Ports</t>
-  </si>
-  <si>
     <t>Open Ports</t>
   </si>
   <si>
@@ -177,9 +169,6 @@
     <t>SMB, web (ecommerce page)</t>
   </si>
   <si>
-    <t>SMB, HR Power Manager login</t>
-  </si>
-  <si>
     <t>Mail Server, Apache Web, SNMP</t>
   </si>
   <si>
@@ -189,22 +178,10 @@
     <t>SMB, SNMP</t>
   </si>
   <si>
-    <t>80, 139, 25, 161</t>
-  </si>
-  <si>
-    <t>Mail Server, SNMP</t>
-  </si>
-  <si>
     <t>80, 161</t>
   </si>
   <si>
     <t>Windows 2000</t>
-  </si>
-  <si>
-    <t>Windows 6.1</t>
-  </si>
-  <si>
-    <t>Linux tophat.acme.com</t>
   </si>
   <si>
     <t>Running Services</t>
@@ -224,9 +201,6 @@
   </si>
   <si>
     <t>Plan of attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMB, SNMP, VNC </t>
   </si>
   <si>
     <r>
@@ -267,9 +241,6 @@
   </si>
   <si>
     <t>21, 139, 25, 80, 161</t>
-  </si>
-  <si>
-    <t>22. 80</t>
   </si>
   <si>
     <t>22, 80, 161</t>
@@ -376,9 +347,6 @@
     <t>Windows XP 5.1</t>
   </si>
   <si>
-    <t>SMB, iis (xss vuln)</t>
-  </si>
-  <si>
     <t>Anon FTP allowed
 HTTP Put method allowed</t>
   </si>
@@ -399,13 +367,6 @@
   </si>
   <si>
     <t>Payday</t>
-  </si>
-  <si>
-    <t>Apache 2.2.4
- - mod_netogiation module allows easy brute forcing of directory names
-PHP 5.2.3
-possible xss
-App may be very vulnerable</t>
   </si>
   <si>
     <t>21, 80, 3389</t>
@@ -440,9 +401,6 @@
   </si>
   <si>
     <t>80, 135, 139, 161, 49155</t>
-  </si>
-  <si>
-    <t>SMB, bethany's web page, SNMP, RPC</t>
   </si>
   <si>
     <t>CVE-2012-0152 (DOS)
@@ -560,12 +518,6 @@
 Don't need to connect via SSH, just connect via Pop port</t>
   </si>
   <si>
-    <t>exploit femitter, traverse directories
-Browse to ftp://10.11.1.125/\..
-Traverse using this pattern:  
-Run a broader nmap on this one</t>
-  </si>
-  <si>
     <t>10.11.1.44</t>
   </si>
   <si>
@@ -622,13 +574,6 @@
 /index/ page - another login</t>
   </si>
   <si>
-    <t>139, 445, 80, 161</t>
-  </si>
-  <si>
-    <t>/licenses gives a list of all software installed
-Per Phillip and Forum, XSS (possibly with Beef) is way to go</t>
-  </si>
-  <si>
     <t>10.11.1.7</t>
   </si>
   <si>
@@ -692,12 +637,406 @@
   <si>
     <t>leftturn</t>
   </si>
+  <si>
+    <t>Tricia</t>
+  </si>
+  <si>
+    <t>10.11.1.141</t>
+  </si>
+  <si>
+    <t>22, 111, 10000</t>
+  </si>
+  <si>
+    <t>ProFTPD 1.3.3a
+OpenSSH 5.5p1 Debian 6</t>
+  </si>
+  <si>
+    <t>22, 25, 80, 110, 111, 143, 443, 993, 995, 3306, 4445</t>
+  </si>
+  <si>
+    <t>OpenSSH 4.3
+Mail server with VRFY enabled
+Apache 2.2.3</t>
+  </si>
+  <si>
+    <t>Centos 5
+238.12.1.el5</t>
+  </si>
+  <si>
+    <t>Elastix 2.2.0 web app. Got in with admin/admin
+RoundCube Mail 0.3.1
+freePBX 2.8.1
+postfix 2.3.3
+cyrus-imapd 2.3.7
+Asterisk 1.8.7.0
+hylafax 4.3.10</t>
+  </si>
+  <si>
+    <t>https://www.offensive-security.com/vulndev/freepbx-exploit-phone-home/
+Or LFI: https://www.exploit-db.com/exploits/37637/
+This one worked - easy! https://www.exploit-db.com/exploits/18650/</t>
+  </si>
+  <si>
+    <t>More on nmap --interactive: https://gist.github.com/dergachev/7916152
+Also - I had to go into Elastix app and associate extension 1000 with admin user (under PBX/voicemail option).</t>
+  </si>
+  <si>
+    <t>10.11.1.226</t>
+  </si>
+  <si>
+    <t>Both FTP products have buffer overflow issues.
+Forum indicates AT-FTPd can be pwned via metasploit (but might have to revert machine first since flaky)</t>
+  </si>
+  <si>
+    <t>Explorer?</t>
+  </si>
+  <si>
+    <t>Lifted a couple of private keys from windows/freesshd directory</t>
+  </si>
+  <si>
+    <t>21, 23, 1720, 60000</t>
+  </si>
+  <si>
+    <t>Guild FTPd
+AT-TFTP (vuln)
+FreeSSHd
+Python 2.6
+GnuWin32</t>
+  </si>
+  <si>
+    <t>Windows 2003</t>
+  </si>
+  <si>
+    <t>OpenSSH 5.3p1
+Apache 2.2.14
+PHP 5.3.2
+XML-RPC
+Wordpress 3.5.1</t>
+  </si>
+  <si>
+    <t>This looks promising: http://www.securityfocus.com/bid/14088/exploit
+Or https://www.exploit-db.com/exploits/23856/ - no luck yet.
+Let's try this: https://www.exploit-db.com/exploits/39891/
+Brute forced Wordpress pwd with msf (admin/princess)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debian 3ubuntu3
+2.6.32-21-generica-pae
+Ubuntu 10.04 LTS(lucid) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This worked! http://www.r00tsec.com/2015/08/howto-create-backdoor-in-wordpress.html
+Use this for PE: https://www.exploit-db.com/exploits/15704/
+Found info on other networks. See nina.html</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>22, 80, 111, 443</t>
+  </si>
+  <si>
+    <t>Apache 2.2.22
+rpcbind 2.2
+openSSH 6.0p1</t>
+  </si>
+  <si>
+    <t>https://10.11.1.237/test
+/web1</t>
+  </si>
+  <si>
+    <t>Webdav has been installed as per these instructions: https://www.howtoforge.com/setting-up-webdav-with-apache2-on-debian-etch
+Got htpasswd file. Going to try to decrypt with John.</t>
+  </si>
+  <si>
+    <t>10.11.1.221</t>
+  </si>
+  <si>
+    <t>edbmachine</t>
+  </si>
+  <si>
+    <t>OpenSSH 5.1
+Apache 2.2.11
+PHP 5.2.6-3Ubuntu4.4
+Wordpress 2.8.6
+MySQL 5</t>
+  </si>
+  <si>
+    <t>Ubuntu 9.04 (Jaunty Jackalope)
+2.6.28-11-generic</t>
+  </si>
+  <si>
+    <t>Using wpscan to try and exploit old WP instance
+Looks like sqli is the way in
+Cracked password for mysql db: root:toor
+Cracked password for wordpress is ????? (via John).
+Can upload shell via plugins, but Phil says easier way. Just SSH right in as sean with ?????
+Just overwrite /etc/passwd again
+Wordpress Pingback Port scanner might be important</t>
+  </si>
+  <si>
+    <t>192.168.1.7</t>
+  </si>
+  <si>
+    <t>192.168.1.217</t>
+  </si>
+  <si>
+    <t>21, 22, 80, 443</t>
+  </si>
+  <si>
+    <t>PureFTPd</t>
+  </si>
+  <si>
+    <t>10.1.1.1</t>
+  </si>
+  <si>
+    <t>10.1.1.223</t>
+  </si>
+  <si>
+    <t>22, 80, 222, 10000</t>
+  </si>
+  <si>
+    <t>80, 135, 139, 443, 445, 3306, 3389, 49152-7</t>
+  </si>
+  <si>
+    <t>10.1.1.224</t>
+  </si>
+  <si>
+    <t>10.1.1.230</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>niky.it.thinc</t>
+  </si>
+  <si>
+    <t>10.1.1.226</t>
+  </si>
+  <si>
+    <t>jeff</t>
+  </si>
+  <si>
+    <t>kevin.thinc</t>
+  </si>
+  <si>
+    <t>21, 135, 139, 445, 1025, 3389</t>
+  </si>
+  <si>
+    <t>135, 139, 445, 3389, 49152-7</t>
+  </si>
+  <si>
+    <t>10.1.1.235</t>
+  </si>
+  <si>
+    <t>nina</t>
+  </si>
+  <si>
+    <t>10.1.1.236</t>
+  </si>
+  <si>
+    <t>carrie</t>
+  </si>
+  <si>
+    <t>22, 25, 53, 80, 111, 50001</t>
+  </si>
+  <si>
+    <t>10.1.1.246</t>
+  </si>
+  <si>
+    <t>sean.it.thinc</t>
+  </si>
+  <si>
+    <t>10.1.1.247</t>
+  </si>
+  <si>
+    <t>cory</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>10.1.1.254</t>
+  </si>
+  <si>
+    <t>53, 8080</t>
+  </si>
+  <si>
+    <t>10.1.1.248</t>
+  </si>
+  <si>
+    <t>Apache 
+Apache 2.2.9 on port 10000
+ - mod_python 3.3.1
+ - Python 2.5.2
+ - mod_perl 2.0.4
+ - PHP 5.2.6</t>
+  </si>
+  <si>
+    <t>Humble</t>
+  </si>
+  <si>
+    <t>Humble 2</t>
+  </si>
+  <si>
+    <t>OpenSSH 5.3p1
+Rocket httpd 1.2.6
+Python 2.6.5
+web2py framework</t>
+  </si>
+  <si>
+    <t>https://10.11.1.44:8000/
+https://10.11.1.44:8000/admin</t>
+  </si>
+  <si>
+    <t>Can maybe brute force web2py admin login from 251 (must be from same network).</t>
+  </si>
+  <si>
+    <t>Apache 2.2.4
+ - mod_netogiation module allows easy brute forcing of directory names
+PHP 5.2.3
+possible xss
+App may be very vulnerable
+CS-Cart 1.3.3
+FCKEditor 2.2</t>
+  </si>
+  <si>
+    <t>Login to CS-Cart as admin/admin
+Might be able to do something with this: http://10.11.1.24/classes/fckeditor/editor/filemanager/browser/default/connectors/test.html#
+File traversal: http://10.11.1.24/classes/fckeditor/editor/filemanager/browser/default/browser.html?Type=Image&amp;Connector=../../connectors/php/connector.php</t>
+  </si>
+  <si>
+    <t>Used this exploit to output /etc/passwd: http://blog.portswigger.net/2015/08/server-side-template-injection.html
+Then logged in as patrick/patrick
+then sudo -s</t>
+  </si>
+  <si>
+    <t>Got /etc/shadow via file traversal issue: http://10.11.1.141:10000/unauthenticated/..%01/..%01/..%01/..%01/..%01/etc/shadow</t>
+  </si>
+  <si>
+    <t>Linux fc4.thinc.local 2.6.11-1.1369_FC4
+Fedora Core release 4 (Stentz)
+LSB_VERSION="1.3"</t>
+  </si>
+  <si>
+    <t>Brute forced login with John (use syntax from course PDF!!!)
+Going to try DirtyCow for exploit</t>
+  </si>
+  <si>
+    <t>fc4.thinc.local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/licenses gives a list of all software installed
+Per Phillip and Forum, XSS (possibly with Beef) is way to go
+Through Jeff, I can get Nicky (client side exploit). </t>
+  </si>
+  <si>
+    <t>For PE - log in as Bob. 
+Upload reverse shell (pl - modify file extension to .cgi)
+Browse to file using same webmin traversal bug</t>
+  </si>
+  <si>
+    <t>CVE-2012-0002</t>
+  </si>
+  <si>
+    <t>RDP</t>
+  </si>
+  <si>
+    <t>Looks like I need to modify the exploit to do RCE instead of DOS
+Forum says you need mailman/postman first</t>
+  </si>
+  <si>
+    <t>Microsoft IIS httpd 6.0
+Adobe ColdFusion 8 Enterprise
+Adobe BlazeDS</t>
+  </si>
+  <si>
+    <t>Get encrypted pwd here: http://10.11.1.10/CFIDE/administrator/enter.cfm?locale=..\..\..\..\..\..\..\..\..\..\ColdFusion8\lib\password.properties%00en
+Google result and get password (pass123)
+Create a utility to execute system commands:
+https://jumpespjump.blogspot.com/2014/03/attacking-adobe-coldfusion.html
+Modify it to include an upload function: http://www.pwnag3.com/2013/04/coldfusion-for-pentesters-part-2.html</t>
+  </si>
+  <si>
+    <t>mike.thinc.local</t>
+  </si>
+  <si>
+    <t>Bethany</t>
+  </si>
+  <si>
+    <t>SMB, bethany's web page, SNMP, RPC
+Drupal 7.28</t>
+  </si>
+  <si>
+    <t>Bethany2</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Windows 7 Professional 7601 Service Pack 1</t>
+  </si>
+  <si>
+    <t>Users: jill, Guest, admin, Administrator, HomeGroupUser</t>
+  </si>
+  <si>
+    <t>Microsoft HTTPAPI httpd 2.0 (SSDP/UPnP)       
+TightVNC
+Apache httpd 2.4.9
+PHP/5.5.12
+MySQL
+WampServer 2.5</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Windows 7 Ultimate N 7600</t>
+  </si>
+  <si>
+    <t>GoAhead WebServer
+SMB
+RPC
+HP Power Manager</t>
+  </si>
+  <si>
+    <t>Got in with admin/admin</t>
+  </si>
+  <si>
+    <t>Easy peasy exploit with metasploit
+hp_power_manager_filename</t>
+  </si>
+  <si>
+    <t>exploit femitter, traverse directories
+Browse to ftp://10.11.1.125/\..
+Traverse using this pattern:  
+Run a broader nmap on this one
+ftp://10.11.1.125/../../../Windows/System32/eula.txt</t>
+  </si>
+  <si>
+    <t>WINDOWS XP ÉDITION PROFESSIONNEL AVEC LE 
+LOGICIEL SERVICE PACK 3</t>
+  </si>
+  <si>
+    <t>Sherlock</t>
+  </si>
+  <si>
+    <t>https://www.gracefulsecurity.com/path-traversal-cheat-sheet-windows/</t>
+  </si>
+  <si>
+    <t>Front Page
+PHP 5</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +1065,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -753,7 +1100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -776,11 +1123,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -802,26 +1161,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1133,18 +1539,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="33.77734375" customWidth="1"/>
@@ -1163,29 +1569,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1193,139 +1599,163 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5">
+      <c r="E4" s="13">
+        <v>80</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="13">
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="24">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="28"/>
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="14">
         <v>161</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="29" t="s">
+        <v>249</v>
+      </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L8" s="3"/>
     </row>
@@ -1333,56 +1763,74 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>57</v>
+      <c r="B10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
+        <v>113</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="E11">
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>151</v>
+        <v>261</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="L11" s="3"/>
     </row>
@@ -1391,64 +1839,70 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>5900</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>129</v>
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L14" s="8"/>
     </row>
@@ -1456,14 +1910,14 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
-        <v>131</v>
+      <c r="C15" t="s">
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I15">
         <v>77</v>
@@ -1474,110 +1928,158 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>134</v>
+      <c r="C16" t="s">
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="F22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="3"/>
+      <c r="L22" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 M2:XFD20 A15:K20 A14:G14 I14:K14 A2:K12 A13:C13 E13:K13 A21:XFD1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="A1:XFD1 M2:XFD22 I14:K14 A2:K12 E13:K13 A17:K17 A23:XFD1048576 E15:K16 E14:G14 A13:C16 A20:K22 E18:K19 A18:C19">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$J1=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$J18=1</formula>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$J20=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1608,56 +2110,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="K2" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:XFD2 A2:J2">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$I2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$I1=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1667,166 +2169,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>136</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>141</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>146</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>226</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="11"/>
-    <col min="3" max="3" width="9.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="40" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.5546875" style="11" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1834,301 +2200,653 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="G2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="13">
         <v>1</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="J3" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="B4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="20">
+        <v>1</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>233</v>
+      </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="B9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="J10" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="22">
         <v>1</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="12" t="s">
+    </row>
+    <row r="12" spans="1:12" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="I12" s="26">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>146</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="I14" s="20">
+        <v>1</v>
+      </c>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I15" s="23">
         <v>1</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J15" s="13" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" s="18">
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="J17" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="13">
         <v>1</v>
       </c>
-      <c r="K12" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="11">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="11">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="11">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="11">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:XFD11 A12:C13 E12:XFD12 A14:XFD14 F13:XFD13 A19:XFD19 H15:XFD15 A15:C18 E16:XFD18 A21:XFD22 A20:C20 E20:XFD20 A25:XFD1048576 A23:D24 F23:XFD24">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I1=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D15:G15">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$I15=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I17=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$I20=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$I24=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$I12=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://10.11.1.44:8000/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>